--- a/data/trans_orig/P1421-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13010</v>
+        <v>13128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01102315047463474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003699829130309496</v>
+        <v>0.003691070066689985</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02633251802507133</v>
+        <v>0.02657166873065367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>15299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9208</v>
+        <v>8687</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23550</v>
+        <v>23899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03272561347142176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01969677478043147</v>
+        <v>0.01858143992234176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0503747711417785</v>
+        <v>0.05112176063491226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>20745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13517</v>
+        <v>12572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32491</v>
+        <v>30862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02157448269511163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01405714433154114</v>
+        <v>0.01307471737741474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03379026078341205</v>
+        <v>0.03209585504731275</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>488618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481054</v>
+        <v>480936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>492236</v>
+        <v>492240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9889768495253652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9736674819749283</v>
+        <v>0.9734283312693459</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963001708696905</v>
+        <v>0.99630892993331</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>473</v>
@@ -836,19 +836,19 @@
         <v>452190</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>443939</v>
+        <v>443590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>458281</v>
+        <v>458802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9672743865285782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9496252288582214</v>
+        <v>0.9488782393650876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9803032252195685</v>
+        <v>0.9814185600776582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>967</v>
@@ -857,19 +857,19 @@
         <v>940808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929062</v>
+        <v>930691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>948036</v>
+        <v>948981</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9784255173048884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.966209739216588</v>
+        <v>0.9679041449526873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9859428556684592</v>
+        <v>0.9869252826225853</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8943</v>
+        <v>8742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24380</v>
+        <v>24242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02064255172494976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01215901089468661</v>
+        <v>0.01188595823880078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03314817590164142</v>
+        <v>0.03296078022476051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -982,19 +982,19 @@
         <v>47553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35586</v>
+        <v>36450</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63923</v>
+        <v>62580</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07602457931988801</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05689297294761338</v>
+        <v>0.0582739537025369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1021964738425821</v>
+        <v>0.1000493216995472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1003,19 +1003,19 @@
         <v>62735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48912</v>
+        <v>48786</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80432</v>
+        <v>79456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04609557389927761</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03593848054655065</v>
+        <v>0.03584595359199101</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05909821273932127</v>
+        <v>0.05838158868073845</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>720307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>711109</v>
+        <v>711247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>726546</v>
+        <v>726747</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9793574482750502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9668518240983586</v>
+        <v>0.9670392197752395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9878409891053135</v>
+        <v>0.9881140417611993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>546</v>
@@ -1053,19 +1053,19 @@
         <v>577941</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>561571</v>
+        <v>562914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>589908</v>
+        <v>589044</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.923975420680112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.897803526157418</v>
+        <v>0.8999506783004531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9431070270523867</v>
+        <v>0.9417260462974631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1234</v>
@@ -1074,19 +1074,19 @@
         <v>1298247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1280550</v>
+        <v>1281526</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1312070</v>
+        <v>1312196</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9539044261007223</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9409017872606783</v>
+        <v>0.9416184113192611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.964061519453449</v>
+        <v>0.9641540464080086</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7644</v>
+        <v>7678</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21720</v>
+        <v>23219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02131200412492893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01196802649628805</v>
+        <v>0.0120222280320034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03400824470631553</v>
+        <v>0.03635586825194172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>41987</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31487</v>
+        <v>29327</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57503</v>
+        <v>56741</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06087261109704607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0456502662238855</v>
+        <v>0.04251801645613187</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08336885499762026</v>
+        <v>0.08226383791209464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -1220,19 +1220,19 @@
         <v>55598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42238</v>
+        <v>42349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72053</v>
+        <v>72372</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0418528489045142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03179599196027098</v>
+        <v>0.03187957607174421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05423985412272769</v>
+        <v>0.05447971135312219</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>625057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616948</v>
+        <v>615449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>631024</v>
+        <v>630990</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.978687995875071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9659917552936841</v>
+        <v>0.9636441317480583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880319735037119</v>
+        <v>0.9879777719679965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>619</v>
@@ -1270,19 +1270,19 @@
         <v>647757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>632241</v>
+        <v>633003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658257</v>
+        <v>660417</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9391273889029539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9166311450023797</v>
+        <v>0.9177361620879053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9543497337761145</v>
+        <v>0.9574819835438682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1218</v>
@@ -1291,19 +1291,19 @@
         <v>1272814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1256359</v>
+        <v>1256040</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1286174</v>
+        <v>1286063</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9581471510954858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9457601458772722</v>
+        <v>0.9455202886468779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9682040080397289</v>
+        <v>0.9681204239282558</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8183</v>
+        <v>8186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23297</v>
+        <v>24121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0281271848053909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01576198620736911</v>
+        <v>0.01576894312086587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04487537617606043</v>
+        <v>0.04646239053070392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1416,19 +1416,19 @@
         <v>31285</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21869</v>
+        <v>21868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43333</v>
+        <v>42613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0606724448240427</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04241137936612695</v>
+        <v>0.0424101647869887</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08403756318597505</v>
+        <v>0.08263997099368153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1437,19 +1437,19 @@
         <v>45887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33999</v>
+        <v>33552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60018</v>
+        <v>59571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04434469592080176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03285644502778749</v>
+        <v>0.03242390117302408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05800057412362111</v>
+        <v>0.05756829200987032</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>504545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495850</v>
+        <v>495026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>510964</v>
+        <v>510961</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9718728151946091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9551246238239395</v>
+        <v>0.953537609469296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9842380137926309</v>
+        <v>0.9842310568791338</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>471</v>
@@ -1487,19 +1487,19 @@
         <v>484357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>472309</v>
+        <v>473029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>493773</v>
+        <v>493774</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9393275551759573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.915962436814025</v>
+        <v>0.9173600290063186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9575886206338731</v>
+        <v>0.9575898352130113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>941</v>
@@ -1508,19 +1508,19 @@
         <v>988902</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>974771</v>
+        <v>975218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1000790</v>
+        <v>1001237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9556553040791983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9419994258763785</v>
+        <v>0.9424317079901301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9671435549722124</v>
+        <v>0.967576098826976</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10395</v>
+        <v>9568</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26351</v>
+        <v>26111</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04321324718529815</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02687995851888909</v>
+        <v>0.02474094367435179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06814068382316293</v>
+        <v>0.06752115466641238</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1633,19 +1633,19 @@
         <v>22350</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15063</v>
+        <v>14944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32078</v>
+        <v>34101</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05532482344817567</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03728472140739087</v>
+        <v>0.0369920590150763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07940485961793464</v>
+        <v>0.0844113902859875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>39061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28021</v>
+        <v>28484</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52576</v>
+        <v>55187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04940134843527139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03543870724007312</v>
+        <v>0.0360245496938682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06649344607027545</v>
+        <v>0.06979503539829539</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>369999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>360359</v>
+        <v>360599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>376315</v>
+        <v>377142</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9567867528147018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9318593161768373</v>
+        <v>0.9324788453335877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.973120041481111</v>
+        <v>0.9752590563256482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>374</v>
@@ -1704,19 +1704,19 @@
         <v>381636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>371908</v>
+        <v>369885</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388923</v>
+        <v>389042</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9446751765518243</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9205951403820654</v>
+        <v>0.9155886097140127</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9627152785926092</v>
+        <v>0.9630079409849237</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>750</v>
@@ -1725,19 +1725,19 @@
         <v>751635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>738120</v>
+        <v>735509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>762675</v>
+        <v>762212</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9505986515647286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9335065539297245</v>
+        <v>0.9302049646017045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9645612927599269</v>
+        <v>0.9639754503061317</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3376</v>
+        <v>3198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12968</v>
+        <v>13320</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02487857303897012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01153724299349119</v>
+        <v>0.01092968868303817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04432320071308164</v>
+        <v>0.04552453289761969</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1850,19 +1850,19 @@
         <v>24712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16918</v>
+        <v>16643</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34344</v>
+        <v>35005</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07205909838888097</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04933351684661823</v>
+        <v>0.04853261804581151</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1001484613929724</v>
+        <v>0.1020758451395142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -1871,19 +1871,19 @@
         <v>31991</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22241</v>
+        <v>22991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41948</v>
+        <v>45064</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0503378546213756</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03499648327239128</v>
+        <v>0.03617640117263281</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06600573313861072</v>
+        <v>0.07090880857625005</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>285304</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279615</v>
+        <v>279263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289207</v>
+        <v>289385</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9751214269610299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9556767992869188</v>
+        <v>0.9544754671023803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9884627570065089</v>
+        <v>0.9890703113169618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -1921,19 +1921,19 @@
         <v>318222</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>308590</v>
+        <v>307929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326016</v>
+        <v>326291</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9279409016111191</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8998515386070273</v>
+        <v>0.8979241548604857</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9506664831533815</v>
+        <v>0.9514673819541885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -1942,19 +1942,19 @@
         <v>603526</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>593569</v>
+        <v>590453</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>613276</v>
+        <v>612526</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9496621453786244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9339942668613894</v>
+        <v>0.92909119142375</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9650035167276089</v>
+        <v>0.9638235988273672</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>5640</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2036</v>
+        <v>1955</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11977</v>
+        <v>11823</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02687049062282007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009698354601693264</v>
+        <v>0.00931451136234838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05706338486719019</v>
+        <v>0.05633008596482147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2067,19 +2067,19 @@
         <v>11715</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5929</v>
+        <v>5849</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21104</v>
+        <v>20991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03508341634123255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01775591051875346</v>
+        <v>0.01751559620427755</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0632016486742923</v>
+        <v>0.06286417544862145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2088,19 +2088,19 @@
         <v>17354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10423</v>
+        <v>10015</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27247</v>
+        <v>27296</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03191353389166746</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01916668641332619</v>
+        <v>0.01841688776016018</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05010656112895175</v>
+        <v>0.05019623153092714</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>204243</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>197906</v>
+        <v>198060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207847</v>
+        <v>207928</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9731295093771799</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9429366151328098</v>
+        <v>0.9436699140351791</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9903016453983067</v>
+        <v>0.9906854886376517</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>280</v>
@@ -2138,19 +2138,19 @@
         <v>322193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>312804</v>
+        <v>312917</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>327979</v>
+        <v>328059</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9649165836587674</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9367983513257078</v>
+        <v>0.9371358245513788</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9822440894812465</v>
+        <v>0.9824844037957227</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>494</v>
@@ -2159,19 +2159,19 @@
         <v>526437</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>516544</v>
+        <v>516495</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>533368</v>
+        <v>533776</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9680864661083325</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9498934388710483</v>
+        <v>0.9498037684690731</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9808333135866738</v>
+        <v>0.9815831122398399</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>78472</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02394951982963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -2284,19 +2284,19 @@
         <v>194900</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05767647018032619</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>267</v>
@@ -2305,19 +2305,19 @@
         <v>273372</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04107308671545017</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3198071</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3179447</v>
+        <v>3178420</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3214632</v>
+        <v>3214128</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.97605048017037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9703662792256297</v>
+        <v>0.9700528596717318</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9811046473129927</v>
+        <v>0.9809510530874029</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3108</v>
@@ -2355,19 +2355,19 @@
         <v>3184297</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3155739</v>
+        <v>3154445</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3211199</v>
+        <v>3207993</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9423235298196738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9338725956240463</v>
+        <v>0.9334894274670542</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9502846685148514</v>
+        <v>0.9493358859897569</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6244</v>
@@ -2376,19 +2376,19 @@
         <v>6382369</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6350811</v>
+        <v>6349588</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6413799</v>
+        <v>6413367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9589269132845498</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9541854726271671</v>
+        <v>0.9540016793377873</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9636491041877405</v>
+        <v>0.9635842936146383</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>6960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3182</v>
+        <v>2952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14124</v>
+        <v>13391</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01532445782728178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007005810337483914</v>
+        <v>0.00650033231541706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03110087760716474</v>
+        <v>0.02948707770308991</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2744,19 +2744,19 @@
         <v>14370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8230</v>
+        <v>8006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24683</v>
+        <v>24768</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03340139868476125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01912905703152851</v>
+        <v>0.01860799311464493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05737209870504408</v>
+        <v>0.05756867847969089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2765,19 +2765,19 @@
         <v>21330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13583</v>
+        <v>13007</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33716</v>
+        <v>32216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02411849917098682</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01535927264841328</v>
+        <v>0.01470806045691813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03812415382187857</v>
+        <v>0.03642743484974884</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>447186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440022</v>
+        <v>440755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450964</v>
+        <v>451194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9846755421727182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9688991223928362</v>
+        <v>0.9705129222969101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9929941896625161</v>
+        <v>0.9934996676845845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -2815,19 +2815,19 @@
         <v>415860</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>405547</v>
+        <v>405462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422000</v>
+        <v>422224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9665986013152388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9426279012949559</v>
+        <v>0.9424313215203091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9808709429684714</v>
+        <v>0.981392006885355</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>847</v>
@@ -2836,19 +2836,19 @@
         <v>863046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>850660</v>
+        <v>852160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>870793</v>
+        <v>871369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9758815008290131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9618758461781216</v>
+        <v>0.9635725651502508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.984640727351587</v>
+        <v>0.9852919395430819</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>7415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3541</v>
+        <v>3670</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13872</v>
+        <v>15567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01079215945389313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005153505538622457</v>
+        <v>0.005341076574378531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02018965899416482</v>
+        <v>0.0226558348916933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2961,19 +2961,19 @@
         <v>21724</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12876</v>
+        <v>13745</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32608</v>
+        <v>31920</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03559756690901503</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02109954093355003</v>
+        <v>0.02252262293238595</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05343419232207834</v>
+        <v>0.05230580448847769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2982,19 +2982,19 @@
         <v>29139</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20241</v>
+        <v>19779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40904</v>
+        <v>41074</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02246034627813652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01560169149644669</v>
+        <v>0.01524575323876295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03152888441420185</v>
+        <v>0.03166013893161571</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>679672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>673215</v>
+        <v>671520</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>683546</v>
+        <v>683417</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9892078405461069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9798103410058352</v>
+        <v>0.9773441651083066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9948464944613775</v>
+        <v>0.9946589234256215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>550</v>
@@ -3032,19 +3032,19 @@
         <v>588531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>577647</v>
+        <v>578335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>597379</v>
+        <v>596510</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9644024330909849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9465658076779219</v>
+        <v>0.9476941955115223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.97890045906645</v>
+        <v>0.9774773770676141</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1209</v>
@@ -3053,19 +3053,19 @@
         <v>1268203</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1256438</v>
+        <v>1256268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1277101</v>
+        <v>1277563</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9775396537218635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9684711155857981</v>
+        <v>0.9683398610683843</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843983085035534</v>
+        <v>0.984754246761237</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>11180</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5325</v>
+        <v>5904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19999</v>
+        <v>20701</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01639678448907291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007809522375709454</v>
+        <v>0.008658585055053739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02932962211696213</v>
+        <v>0.03035901775037771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3178,19 +3178,19 @@
         <v>50312</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37046</v>
+        <v>38701</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65932</v>
+        <v>65874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07090493708186237</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0522093417173054</v>
+        <v>0.05454164847427445</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09291751429295037</v>
+        <v>0.09283665065562285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -3199,19 +3199,19 @@
         <v>61493</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46713</v>
+        <v>47933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78132</v>
+        <v>80195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04419364788000284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03357172029912259</v>
+        <v>0.03444872178389263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05615217302288012</v>
+        <v>0.05763434093654844</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>670683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661864</v>
+        <v>661162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>676538</v>
+        <v>675959</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9836032155109271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9706703778830381</v>
+        <v>0.9696409822496226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9921904776242906</v>
+        <v>0.9913414149449463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>617</v>
@@ -3249,19 +3249,19 @@
         <v>659262</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643642</v>
+        <v>643700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>672528</v>
+        <v>670873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9290950629181376</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9070824857070496</v>
+        <v>0.9071633493443771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9477906582826947</v>
+        <v>0.9454583515257257</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -3270,19 +3270,19 @@
         <v>1329944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1313305</v>
+        <v>1311242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1344724</v>
+        <v>1343504</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9558063521199972</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9438478269771199</v>
+        <v>0.9423656590634515</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9664282797008774</v>
+        <v>0.9655512782161073</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>6196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2158</v>
+        <v>2103</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12748</v>
+        <v>12451</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01008140855185599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003510568095174182</v>
+        <v>0.003422042764887468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02074200453621097</v>
+        <v>0.02025876771595565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3395,19 +3395,19 @@
         <v>34637</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23819</v>
+        <v>23840</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48546</v>
+        <v>48789</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05638736720013566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03877718221535947</v>
+        <v>0.03881052388384052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07903083335555076</v>
+        <v>0.07942639188928194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3416,19 +3416,19 @@
         <v>40833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29214</v>
+        <v>28876</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56788</v>
+        <v>55614</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03322774034100795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02377249086592786</v>
+        <v>0.02349786778842178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04621101296851286</v>
+        <v>0.04525624005730106</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>608421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>601869</v>
+        <v>602166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612459</v>
+        <v>612514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.989918591448144</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9792579954637892</v>
+        <v>0.9797412322840443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9964894319048259</v>
+        <v>0.9965779572351127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -3466,19 +3466,19 @@
         <v>579627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>565718</v>
+        <v>565475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>590445</v>
+        <v>590424</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9436126327998643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9209691666444493</v>
+        <v>0.920573608110718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9612228177846406</v>
+        <v>0.9611894761161595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1050</v>
@@ -3487,19 +3487,19 @@
         <v>1188047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1172092</v>
+        <v>1173266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1199666</v>
+        <v>1200004</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9667722596589921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9537889870314872</v>
+        <v>0.9547437599426989</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9762275091340721</v>
+        <v>0.9765021322115782</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>4243</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10747</v>
+        <v>9900</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009905195279628331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002582311259244183</v>
+        <v>0.0025581604173987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02508649469294798</v>
+        <v>0.02310877037041843</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3612,19 +3612,19 @@
         <v>21921</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14306</v>
+        <v>13948</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34941</v>
+        <v>32673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04895170437788333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03194750825971324</v>
+        <v>0.03114791879489272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07802896520615901</v>
+        <v>0.07296391189831677</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -3633,19 +3633,19 @@
         <v>26164</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16631</v>
+        <v>16401</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37224</v>
+        <v>38610</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02986074288173973</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01898030887009084</v>
+        <v>0.01871827182197671</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0424832100568134</v>
+        <v>0.04406478482898307</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>424156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417652</v>
+        <v>418499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>427293</v>
+        <v>427303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9900948047203717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.974913505307052</v>
+        <v>0.9768912296295816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9974176887407559</v>
+        <v>0.9974418395826014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>386</v>
@@ -3683,19 +3683,19 @@
         <v>425879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>412859</v>
+        <v>415127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>433494</v>
+        <v>433852</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9510482956221167</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.921971034793841</v>
+        <v>0.9270360881016833</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9680524917402867</v>
+        <v>0.9688520812051074</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>774</v>
@@ -3704,19 +3704,19 @@
         <v>850035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>838975</v>
+        <v>837589</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>859568</v>
+        <v>859798</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9701392571182603</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9575167899431866</v>
+        <v>0.9559352151710167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9810196911299092</v>
+        <v>0.9812817281780233</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>3088</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8415</v>
+        <v>8426</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009969052336124469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003103620652071214</v>
+        <v>0.003166067603737523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0271640400886578</v>
+        <v>0.02719921059798595</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -3829,19 +3829,19 @@
         <v>22835</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14906</v>
+        <v>14618</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32312</v>
+        <v>32695</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06450563761348159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04210825141188509</v>
+        <v>0.04129299268939784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09127777751915815</v>
+        <v>0.09236086622090105</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -3850,19 +3850,19 @@
         <v>25923</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16954</v>
+        <v>17715</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36877</v>
+        <v>36937</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03905349231738781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.025541948461954</v>
+        <v>0.02668767816789199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05555637729974569</v>
+        <v>0.05564569412393702</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>306698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>301371</v>
+        <v>301360</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308825</v>
+        <v>308805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9900309476638756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9728359599113423</v>
+        <v>0.972800789402014</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9968963793479289</v>
+        <v>0.9968339323962625</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>321</v>
@@ -3900,19 +3900,19 @@
         <v>331161</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>321684</v>
+        <v>321301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>339090</v>
+        <v>339378</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9354943623865184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9087222224808419</v>
+        <v>0.907639133779099</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.957891748588115</v>
+        <v>0.9587070073106022</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>600</v>
@@ -3921,19 +3921,19 @@
         <v>637859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>626905</v>
+        <v>626845</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>646828</v>
+        <v>646067</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9609465076826121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9444436227002543</v>
+        <v>0.9443543058760629</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.974458051538046</v>
+        <v>0.9733123218321079</v>
       </c>
     </row>
     <row r="21">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7683</v>
+        <v>7305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008819018480217114</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03074950843437502</v>
+        <v>0.02923809810548077</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -4046,19 +4046,19 @@
         <v>23958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15025</v>
+        <v>16318</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36184</v>
+        <v>36615</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06159293750479133</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0386278741139256</v>
+        <v>0.04194961164411397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09302212183021148</v>
+        <v>0.09413094132624927</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -4067,19 +4067,19 @@
         <v>26162</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17130</v>
+        <v>17318</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38541</v>
+        <v>39014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.040952686136554</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02681443234223379</v>
+        <v>0.02710943557637526</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06033029977637348</v>
+        <v>0.06107028748183069</v>
       </c>
     </row>
     <row r="23">
@@ -4096,7 +4096,7 @@
         <v>247648</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>242168</v>
+        <v>242546</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>249851</v>
@@ -4105,7 +4105,7 @@
         <v>0.9911809815197828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9692504915656249</v>
+        <v>0.9707619018945191</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4117,19 +4117,19 @@
         <v>365021</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>352795</v>
+        <v>352364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>373954</v>
+        <v>372661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9384070624952087</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9069778781697883</v>
+        <v>0.9058690586737506</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9613721258860743</v>
+        <v>0.958050388355886</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>549</v>
@@ -4138,19 +4138,19 @@
         <v>612668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>600289</v>
+        <v>599816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>621700</v>
+        <v>621512</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.959047313863446</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9396697002236263</v>
+        <v>0.9389297125181693</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9731855676577662</v>
+        <v>0.9728905644236248</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>41286</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29778</v>
+        <v>29833</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54787</v>
+        <v>56874</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01205177300091798</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008692509128400736</v>
+        <v>0.008708487229741897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01599258400972419</v>
+        <v>0.01660179312838948</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>177</v>
@@ -4263,19 +4263,19 @@
         <v>189757</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>164997</v>
+        <v>162675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>219843</v>
+        <v>217980</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05337590461030467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04641144903311164</v>
+        <v>0.04575819345754485</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06183879413671193</v>
+        <v>0.06131481386291485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>217</v>
@@ -4284,19 +4284,19 @@
         <v>231043</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>200104</v>
+        <v>204063</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>261507</v>
+        <v>262326</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03309669164588029</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02866467287516117</v>
+        <v>0.02923184381377163</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03746070802084724</v>
+        <v>0.03757794096337243</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3384462</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3370961</v>
+        <v>3368874</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3395970</v>
+        <v>3395915</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.987948226999082</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9840074159902755</v>
+        <v>0.9833982068716109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9913074908715993</v>
+        <v>0.9912915127702584</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3119</v>
@@ -4334,19 +4334,19 @@
         <v>3365341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3335255</v>
+        <v>3337118</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3390101</v>
+        <v>3392423</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9466240953896954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.938161205863288</v>
+        <v>0.9386851861370852</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9535885509668883</v>
+        <v>0.9542418065424552</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6287</v>
@@ -4355,19 +4355,19 @@
         <v>6749804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6719340</v>
+        <v>6718521</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6780743</v>
+        <v>6776784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9669033083541198</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9625392919791534</v>
+        <v>0.9624220590366276</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9713353271248389</v>
+        <v>0.9707681561862284</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>3922</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9688</v>
+        <v>9816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009349120087169861</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002309597757777444</v>
+        <v>0.002308356368252394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02309563523794269</v>
+        <v>0.02340050438946478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4723,19 +4723,19 @@
         <v>8621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3936</v>
+        <v>4538</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16029</v>
+        <v>15606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02178378520179977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009945373552374523</v>
+        <v>0.01146632715512803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04050141192769397</v>
+        <v>0.03943229084259888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>12543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6729</v>
+        <v>6942</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20053</v>
+        <v>20863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0153856415089029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008253695264486804</v>
+        <v>0.008515767820362655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02459852206152416</v>
+        <v>0.0255917723331444</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>415541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409775</v>
+        <v>409647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418494</v>
+        <v>418495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9906508799128302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9769043647620573</v>
+        <v>0.9765994956105353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976904022422225</v>
+        <v>0.9976916436317477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>395</v>
@@ -4794,19 +4794,19 @@
         <v>387134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379726</v>
+        <v>380149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>391819</v>
+        <v>391217</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9782162147982002</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9594985880723061</v>
+        <v>0.9605677091574013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9900546264476255</v>
+        <v>0.9885336728448721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>784</v>
@@ -4815,19 +4815,19 @@
         <v>802675</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>795165</v>
+        <v>794355</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808489</v>
+        <v>808276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9846143584910971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9754014779384759</v>
+        <v>0.9744082276668546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9917463047355132</v>
+        <v>0.9914842321796373</v>
       </c>
     </row>
     <row r="6">
@@ -4922,16 +4922,16 @@
         <v>1040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10747</v>
+        <v>10130</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007190477216934251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001761328727145417</v>
+        <v>0.001760623949843248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01819933314371899</v>
+        <v>0.01715441439490855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4940,19 +4940,19 @@
         <v>37311</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26637</v>
+        <v>26629</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49502</v>
+        <v>49290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06620867126683944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04726653868425086</v>
+        <v>0.04725336750308237</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08784062246382053</v>
+        <v>0.08746430611780295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -4961,19 +4961,19 @@
         <v>41557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28812</v>
+        <v>30150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54340</v>
+        <v>55190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03601038991042446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02496640081075394</v>
+        <v>0.02612592498466804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04708677245313903</v>
+        <v>0.04782341824593898</v>
       </c>
     </row>
     <row r="8">
@@ -4990,7 +4990,7 @@
         <v>586250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>579749</v>
+        <v>580366</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>589456</v>
@@ -4999,10 +4999,10 @@
         <v>0.9928095227830658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.981800666856281</v>
+        <v>0.9828455856050906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982386712728546</v>
+        <v>0.9982393760501568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>541</v>
@@ -5011,19 +5011,19 @@
         <v>526233</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514042</v>
+        <v>514254</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536907</v>
+        <v>536915</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9337913287331605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9121593775361795</v>
+        <v>0.9125356938821971</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9527334613157492</v>
+        <v>0.9527466324969177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1104</v>
@@ -5032,19 +5032,19 @@
         <v>1112483</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1099700</v>
+        <v>1098850</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1125228</v>
+        <v>1123890</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9639896100895755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9529132275468608</v>
+        <v>0.9521765817540607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9750335991892459</v>
+        <v>0.9738740750153319</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>7540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3050</v>
+        <v>2984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14995</v>
+        <v>14643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01126932203755359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004559072614713791</v>
+        <v>0.004459081722061469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02241149418313023</v>
+        <v>0.02188473588564896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5157,19 +5157,19 @@
         <v>20179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12243</v>
+        <v>12452</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30800</v>
+        <v>30615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03051073381139488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01851144551653232</v>
+        <v>0.01882706205346854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04656826496724964</v>
+        <v>0.04628893579816123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -5178,19 +5178,19 @@
         <v>27720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18223</v>
+        <v>18247</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40504</v>
+        <v>40153</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02083427403752406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01369686398780985</v>
+        <v>0.01371464022385733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03044306506778121</v>
+        <v>0.0301796296632158</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>661557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>654102</v>
+        <v>654454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666047</v>
+        <v>666113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9887306779624464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.977588505816871</v>
+        <v>0.9781152641143508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954409273852862</v>
+        <v>0.9955409182779384</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -5228,19 +5228,19 @@
         <v>641207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630586</v>
+        <v>630771</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>649143</v>
+        <v>648934</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9694892661886051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9534317350327504</v>
+        <v>0.9537110642018388</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9814885544834677</v>
+        <v>0.9811729379465316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1277</v>
@@ -5249,19 +5249,19 @@
         <v>1302763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1289979</v>
+        <v>1290330</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1312260</v>
+        <v>1312236</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.979165725962476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9695569349322188</v>
+        <v>0.9698203703367845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9863031360121902</v>
+        <v>0.986285359776143</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>11312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6222</v>
+        <v>6144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19574</v>
+        <v>19062</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01750964314186105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00963103096563509</v>
+        <v>0.009509721463362814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03029731167046692</v>
+        <v>0.02950523802542875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -5374,19 +5374,19 @@
         <v>34672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24122</v>
+        <v>24501</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47782</v>
+        <v>47129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05341791615695964</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03716419196539425</v>
+        <v>0.03774672611887824</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07361581263097422</v>
+        <v>0.07260902440356311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -5395,19 +5395,19 @@
         <v>45984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33798</v>
+        <v>31460</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60976</v>
+        <v>62180</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03550576526555944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02609636202629473</v>
+        <v>0.02429145407745048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04708140179122674</v>
+        <v>0.04801097185934943</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>634736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>626474</v>
+        <v>626986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639826</v>
+        <v>639904</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9824903568581389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.969702688329533</v>
+        <v>0.9704947619745712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9903689690343649</v>
+        <v>0.9904902785366372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>570</v>
@@ -5445,19 +5445,19 @@
         <v>614405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601295</v>
+        <v>601948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>624955</v>
+        <v>624576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9465820838430403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9263841873690257</v>
+        <v>0.9273909755964366</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9628358080346057</v>
+        <v>0.9622532738811216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1141</v>
@@ -5466,19 +5466,19 @@
         <v>1249141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1234149</v>
+        <v>1232945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1261327</v>
+        <v>1263665</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9644942347344405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9529185982087732</v>
+        <v>0.9519890281406503</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9739036379737053</v>
+        <v>0.9757085459225494</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>10756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5358</v>
+        <v>5068</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21099</v>
+        <v>19382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02250687170814776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01121073410858887</v>
+        <v>0.01060494549328704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04414696503675605</v>
+        <v>0.0405554176774521</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -5591,19 +5591,19 @@
         <v>35033</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23617</v>
+        <v>23450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48884</v>
+        <v>48010</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07050952693660897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04753309226689312</v>
+        <v>0.04719675979388144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09838868945900982</v>
+        <v>0.09662952320210393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -5612,19 +5612,19 @@
         <v>45789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33516</v>
+        <v>32990</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63012</v>
+        <v>62750</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04697433041124051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03438348462472523</v>
+        <v>0.0338442066977416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06464303240625054</v>
+        <v>0.06437457727498014</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>467162</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456819</v>
+        <v>458536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472560</v>
+        <v>472850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9774931282918522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9558530349632439</v>
+        <v>0.9594445823225479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9887892658914111</v>
+        <v>0.9893950545067129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>404</v>
@@ -5662,19 +5662,19 @@
         <v>461816</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>447965</v>
+        <v>448839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>473232</v>
+        <v>473399</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9294904730633911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9016113105409901</v>
+        <v>0.9033704767978958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9524669077331068</v>
+        <v>0.9528032402061183</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>819</v>
@@ -5683,19 +5683,19 @@
         <v>928978</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>911755</v>
+        <v>912017</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>941251</v>
+        <v>941777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9530256695887594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9353569675937496</v>
+        <v>0.9356254227250197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9656165153752749</v>
+        <v>0.9661557933022584</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>3936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10148</v>
+        <v>9648</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01177361831393229</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003067884989699555</v>
+        <v>0.00300419050527035</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03035369688778039</v>
+        <v>0.02885889175791288</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -5808,19 +5808,19 @@
         <v>24349</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16363</v>
+        <v>16298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37256</v>
+        <v>34973</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06445680425548671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04331488640239875</v>
+        <v>0.04314353600240913</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09862283841375828</v>
+        <v>0.09257875542861491</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -5829,19 +5829,19 @@
         <v>28286</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19375</v>
+        <v>19026</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39744</v>
+        <v>40385</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0397218409855634</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02720859016685759</v>
+        <v>0.02671877475480315</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05581349248208226</v>
+        <v>0.05671364108493385</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>330394</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324182</v>
+        <v>324682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333304</v>
+        <v>333326</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9882263816860677</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9696463031122196</v>
+        <v>0.9711411082420867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969321150103004</v>
+        <v>0.9969958094947297</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>330</v>
@@ -5879,19 +5879,19 @@
         <v>353413</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340506</v>
+        <v>342789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361399</v>
+        <v>361464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9355431957445133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9013771615862423</v>
+        <v>0.907421244571385</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9566851135976013</v>
+        <v>0.9568564639975908</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>651</v>
@@ -5900,19 +5900,19 @@
         <v>683806</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>672348</v>
+        <v>671707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>692717</v>
+        <v>693066</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9602781590144366</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9441865075179181</v>
+        <v>0.9432863589150665</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9727914098331424</v>
+        <v>0.9732812252451971</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>6163</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2658</v>
+        <v>2633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11518</v>
+        <v>12310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02397941759595491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01034073236547453</v>
+        <v>0.01024540941800109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04481579856161039</v>
+        <v>0.04789990085170002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -6025,19 +6025,19 @@
         <v>34533</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24783</v>
+        <v>24527</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50477</v>
+        <v>48540</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08629502601537105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06193183350362854</v>
+        <v>0.06129062132302269</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1261396383509122</v>
+        <v>0.1212979237528796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -6046,19 +6046,19 @@
         <v>40695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28609</v>
+        <v>29692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56317</v>
+        <v>55734</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06192528927134579</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04353380565270169</v>
+        <v>0.04518256087900307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08569663398554168</v>
+        <v>0.08480984278267259</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>250835</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245480</v>
+        <v>244688</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254340</v>
+        <v>254365</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9760205824040451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9551842014383896</v>
+        <v>0.9521000991482998</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9896592676345255</v>
+        <v>0.989754590581999</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>274</v>
@@ -6096,19 +6096,19 @@
         <v>365636</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>349692</v>
+        <v>351629</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>375386</v>
+        <v>375642</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9137049739846289</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8738603616490879</v>
+        <v>0.8787020762471205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9380681664963715</v>
+        <v>0.9387093786769775</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>569</v>
@@ -6117,19 +6117,19 @@
         <v>616472</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>600850</v>
+        <v>601433</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>628558</v>
+        <v>627475</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9380747107286542</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9143033660144581</v>
+        <v>0.9151901572173273</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9564661943472981</v>
+        <v>0.9548174391209969</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>47875</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36431</v>
+        <v>34793</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64970</v>
+        <v>63515</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01410440066938834</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01073295889843619</v>
+        <v>0.01025038830810581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01914065159788012</v>
+        <v>0.01871196765547217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>178</v>
@@ -6242,19 +6242,19 @@
         <v>194699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>167913</v>
+        <v>169647</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>225019</v>
+        <v>224168</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05492917315418368</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04737230835116891</v>
+        <v>0.047861442112493</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06348332413933093</v>
+        <v>0.0632430416923314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>224</v>
@@ -6263,19 +6263,19 @@
         <v>242574</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211947</v>
+        <v>214139</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>276530</v>
+        <v>278268</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03495861104430423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03054471936183459</v>
+        <v>0.03086069574819027</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03985214285191605</v>
+        <v>0.04010267353608451</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3346475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3329380</v>
+        <v>3330835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3357919</v>
+        <v>3359557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9858955993306117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9808593484021197</v>
+        <v>0.9812880323445271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9892670411015635</v>
+        <v>0.989749611691894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3160</v>
@@ -6313,19 +6313,19 @@
         <v>3349843</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3319523</v>
+        <v>3320374</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3376629</v>
+        <v>3374895</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9450708268458163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9365166758606689</v>
+        <v>0.9367569583076685</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9526276916488309</v>
+        <v>0.9521385578875067</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6345</v>
@@ -6334,19 +6334,19 @@
         <v>6696318</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6662362</v>
+        <v>6660624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6726945</v>
+        <v>6724753</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9650413889556958</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9601478571480839</v>
+        <v>0.9598973264639155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9694552806381654</v>
+        <v>0.9691393042518098</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>12839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4811</v>
+        <v>4155</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29927</v>
+        <v>28038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03161804790493969</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01184812450440685</v>
+        <v>0.0102318835418449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07370076212340777</v>
+        <v>0.06904869246085225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -6702,19 +6702,19 @@
         <v>36979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24336</v>
+        <v>23261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55732</v>
+        <v>56213</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1020083087438619</v>
+        <v>0.102008308743862</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06713254504355176</v>
+        <v>0.06416638930555152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1537389670502434</v>
+        <v>0.1550657745161411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6723,19 +6723,19 @@
         <v>49818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33471</v>
+        <v>33588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70468</v>
+        <v>72243</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06481918775424779</v>
+        <v>0.0648191877542478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04354982412166593</v>
+        <v>0.04370235185307224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09168727530062427</v>
+        <v>0.09399699055406813</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>393217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376129</v>
+        <v>378018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401245</v>
+        <v>401901</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9683819520950604</v>
+        <v>0.9683819520950603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9262992378765923</v>
+        <v>0.9309513075391478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9881518754955934</v>
+        <v>0.9897681164581551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -6773,19 +6773,19 @@
         <v>325533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306780</v>
+        <v>306299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338176</v>
+        <v>339251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.897991691256138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8462610329497563</v>
+        <v>0.8449342254838588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.932867454956448</v>
+        <v>0.9358336106944488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>352</v>
@@ -6794,19 +6794,19 @@
         <v>718750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>698100</v>
+        <v>696325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735097</v>
+        <v>734980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9351808122457522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9083127246993759</v>
+        <v>0.9060030094459322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9564501758783344</v>
+        <v>0.9562976481469279</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>21903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12570</v>
+        <v>12527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36387</v>
+        <v>36308</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04592917658086313</v>
+        <v>0.04592917658086314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02635805434263589</v>
+        <v>0.02626722745202663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0762997121071799</v>
+        <v>0.07613526791063559</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -6919,19 +6919,19 @@
         <v>52486</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38843</v>
+        <v>39267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68065</v>
+        <v>68699</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1047458064583332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07751759916568929</v>
+        <v>0.07836409399329032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1358350284797468</v>
+        <v>0.137100649072167</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -6940,19 +6940,19 @@
         <v>74390</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58167</v>
+        <v>57847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92886</v>
+        <v>94650</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07606498599629093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05947688739460989</v>
+        <v>0.05914944016802182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.094978514378232</v>
+        <v>0.09678136679970027</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>454987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440503</v>
+        <v>440582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464320</v>
+        <v>464363</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9540708234191368</v>
+        <v>0.954070823419137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9237002878928201</v>
+        <v>0.9238647320893645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9736419456573641</v>
+        <v>0.9737327725479734</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>412</v>
@@ -6990,19 +6990,19 @@
         <v>448597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>433018</v>
+        <v>432384</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>462240</v>
+        <v>461816</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8952541935416667</v>
+        <v>0.8952541935416666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8641649715202532</v>
+        <v>0.8628993509278331</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9224824008343108</v>
+        <v>0.9216359060067099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>699</v>
@@ -7011,19 +7011,19 @@
         <v>903583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>885087</v>
+        <v>883323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>919806</v>
+        <v>920126</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9239350140037091</v>
+        <v>0.923935014003709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9050214856217683</v>
+        <v>0.9032186332002997</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9405231126053905</v>
+        <v>0.9408505598319781</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>30769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20857</v>
+        <v>20200</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45134</v>
+        <v>44350</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04956022756926022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03359439591861361</v>
+        <v>0.0325362583030536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07269837669004599</v>
+        <v>0.07143548424399761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -7136,19 +7136,19 @@
         <v>65103</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53188</v>
+        <v>52819</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78773</v>
+        <v>79195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1050087704337398</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08579108465820617</v>
+        <v>0.08519531108832389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1270577623925601</v>
+        <v>0.1277384881916654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -7157,19 +7157,19 @@
         <v>95872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79220</v>
+        <v>80504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113457</v>
+        <v>115201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07726525205675942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06384524260035047</v>
+        <v>0.06487999768094542</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09143806034773691</v>
+        <v>0.09284345318897838</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>590068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>575703</v>
+        <v>576487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599980</v>
+        <v>600637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9504397724307398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9273016233099539</v>
+        <v>0.9285645157560022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9664056040813863</v>
+        <v>0.9674637416969463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>752</v>
@@ -7207,19 +7207,19 @@
         <v>554872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541202</v>
+        <v>540780</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>566787</v>
+        <v>567156</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8949912295662602</v>
+        <v>0.8949912295662603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8729422376074402</v>
+        <v>0.8722615118083344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.914208915341794</v>
+        <v>0.914804688911676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1272</v>
@@ -7228,19 +7228,19 @@
         <v>1144940</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1127355</v>
+        <v>1125611</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1161592</v>
+        <v>1160308</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9227347479432406</v>
+        <v>0.9227347479432404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.908561939652263</v>
+        <v>0.9071565468110216</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9361547573996496</v>
+        <v>0.9351200023190546</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>43553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31446</v>
+        <v>31567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57322</v>
+        <v>57806</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06226134972886285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0449539398626894</v>
+        <v>0.04512632907138035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0819448334592445</v>
+        <v>0.08263661233771065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>171</v>
@@ -7353,19 +7353,19 @@
         <v>107487</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91928</v>
+        <v>94547</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121814</v>
+        <v>123828</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1460864898091832</v>
+        <v>0.1460864898091833</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1249400533208658</v>
+        <v>0.1285007093542884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1655590312207524</v>
+        <v>0.1682958535665668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -7374,19 +7374,19 @@
         <v>151040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131362</v>
+        <v>131128</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172533</v>
+        <v>172991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1052325315286818</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09152276189018831</v>
+        <v>0.09135973308419157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1202075287229054</v>
+        <v>0.1205267276282247</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>655969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>642200</v>
+        <v>641716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>668076</v>
+        <v>667955</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.937738650271137</v>
+        <v>0.9377386502711371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9180551665407554</v>
+        <v>0.9173633876622893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9550460601373106</v>
+        <v>0.9548736709286195</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>968</v>
@@ -7424,19 +7424,19 @@
         <v>628287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>613960</v>
+        <v>611946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>643846</v>
+        <v>641227</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8539135101908167</v>
+        <v>0.8539135101908171</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8344409687792476</v>
+        <v>0.8317041464334339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8750599466791343</v>
+        <v>0.8714992906457116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1590</v>
@@ -7445,19 +7445,19 @@
         <v>1284255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1262762</v>
+        <v>1262304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1303933</v>
+        <v>1304167</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8947674684713181</v>
+        <v>0.8947674684713182</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8797924712770946</v>
+        <v>0.8794732723717754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9084772381098121</v>
+        <v>0.9086402669158086</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>25489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16307</v>
+        <v>17349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35449</v>
+        <v>36020</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04189776449692276</v>
+        <v>0.04189776449692274</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02680427913374209</v>
+        <v>0.02851777511605396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05826950683157769</v>
+        <v>0.05920822808904679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -7570,19 +7570,19 @@
         <v>74802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62961</v>
+        <v>63365</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87573</v>
+        <v>87248</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.123279761259963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1037648086769498</v>
+        <v>0.1044301661717399</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1443269816021095</v>
+        <v>0.1437914670152126</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>150</v>
@@ -7591,19 +7591,19 @@
         <v>100291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85735</v>
+        <v>85321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117048</v>
+        <v>116216</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08253538705177123</v>
+        <v>0.08253538705177124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0705567697351378</v>
+        <v>0.07021625538151843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09632609769166826</v>
+        <v>0.0956415817138139</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>582870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>572910</v>
+        <v>572339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>592052</v>
+        <v>591010</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9581022355030775</v>
+        <v>0.9581022355030774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9417304931684223</v>
+        <v>0.9407917719109533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9731957208662577</v>
+        <v>0.971482224883946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>877</v>
@@ -7641,19 +7641,19 @@
         <v>531963</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>519192</v>
+        <v>519517</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>543804</v>
+        <v>543400</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8767202387400369</v>
+        <v>0.8767202387400371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8556730183978906</v>
+        <v>0.8562085329847875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8962351913230503</v>
+        <v>0.8955698338282603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1511</v>
@@ -7662,19 +7662,19 @@
         <v>1114833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1098076</v>
+        <v>1098908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1129389</v>
+        <v>1129803</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9174646129482288</v>
+        <v>0.917464612948229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9036739023083317</v>
+        <v>0.9043584182861859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9294432302648622</v>
+        <v>0.9297837446184817</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>13584</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8646</v>
+        <v>7968</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21362</v>
+        <v>20778</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03344163201712758</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02128443325718156</v>
+        <v>0.01961581571481118</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05258727896034389</v>
+        <v>0.05115184664097053</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -7787,19 +7787,19 @@
         <v>38895</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31049</v>
+        <v>30599</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48904</v>
+        <v>47993</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08856609575953088</v>
+        <v>0.08856609575953087</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07070003908367932</v>
+        <v>0.06967438760188013</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1113571597645964</v>
+        <v>0.1092816031477318</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -7808,19 +7808,19 @@
         <v>52480</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42653</v>
+        <v>42582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63410</v>
+        <v>64189</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06207830224225153</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05045477325349237</v>
+        <v>0.0503705456028751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07500766099099601</v>
+        <v>0.07592929198417134</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>392627</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>384849</v>
+        <v>385433</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>397565</v>
+        <v>398243</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9665583679828726</v>
+        <v>0.9665583679828724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9474127210396562</v>
+        <v>0.9488481533590296</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9787155667428186</v>
+        <v>0.9803841842851889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>756</v>
@@ -7858,19 +7858,19 @@
         <v>400271</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>390262</v>
+        <v>391173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>408117</v>
+        <v>408567</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9114339042404691</v>
+        <v>0.911433904240469</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8886428402354036</v>
+        <v>0.8907183968522682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9292999609163206</v>
+        <v>0.9303256123981199</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1305</v>
@@ -7879,19 +7879,19 @@
         <v>792898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>781968</v>
+        <v>781189</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>802725</v>
+        <v>802796</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9379216977577485</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9249923390090041</v>
+        <v>0.9240707080158285</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9495452267465077</v>
+        <v>0.949629454397125</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>12126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7624</v>
+        <v>7180</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18452</v>
+        <v>18346</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03908965372753043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0245762866368939</v>
+        <v>0.02314560711449821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05948611057755605</v>
+        <v>0.05914325979714663</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -8004,19 +8004,19 @@
         <v>46703</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36968</v>
+        <v>38105</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56288</v>
+        <v>56966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1006603265657473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07967990428112455</v>
+        <v>0.08212975471133137</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1213199314275454</v>
+        <v>0.1227805551980429</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -8025,19 +8025,19 @@
         <v>58828</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47475</v>
+        <v>48211</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69616</v>
+        <v>71416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07598957484875683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06132473825290386</v>
+        <v>0.06227475888516353</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08992466232393601</v>
+        <v>0.09224942585026143</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>298072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>291746</v>
+        <v>291852</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>302574</v>
+        <v>303018</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9609103462724694</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9405138894224436</v>
+        <v>0.9408567402028533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9754237133631061</v>
+        <v>0.9768543928855016</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>789</v>
@@ -8075,19 +8075,19 @@
         <v>417259</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>407674</v>
+        <v>406996</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>426994</v>
+        <v>425857</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8993396734342527</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8786800685724546</v>
+        <v>0.8772194448019572</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9203200957188753</v>
+        <v>0.9178702452886687</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1227</v>
@@ -8096,19 +8096,19 @@
         <v>715332</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>704544</v>
+        <v>702744</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>726685</v>
+        <v>725949</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.924010425151243</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.910075337676064</v>
+        <v>0.9077505741497385</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9386752617470961</v>
+        <v>0.9377252411148365</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>160263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133585</v>
+        <v>136598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>189282</v>
+        <v>188700</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04542497662309362</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03786351220285165</v>
+        <v>0.03871754137461665</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05365030135680382</v>
+        <v>0.05348538036224133</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>615</v>
@@ -8221,19 +8221,19 @@
         <v>422455</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>389271</v>
+        <v>388796</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>457652</v>
+        <v>458670</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1132817896216601</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1043835923584472</v>
+        <v>0.1042560515920733</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1227200848699631</v>
+        <v>0.1229930431725637</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>771</v>
@@ -8242,19 +8242,19 @@
         <v>582717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>539596</v>
+        <v>541488</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>627146</v>
+        <v>626243</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08029384148151097</v>
+        <v>0.08029384148151099</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07435207603476442</v>
+        <v>0.07461281099449839</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08641582554305552</v>
+        <v>0.08629134331677588</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3367810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3338791</v>
+        <v>3339373</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3394488</v>
+        <v>3391475</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9545750233769064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9463496986431958</v>
+        <v>0.9465146196377585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.962136487797148</v>
+        <v>0.9612824586253834</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4740</v>
@@ -8292,19 +8292,19 @@
         <v>3306783</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3271586</v>
+        <v>3270568</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3339967</v>
+        <v>3340442</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8867182103783399</v>
+        <v>0.88671821037834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8772799151300371</v>
+        <v>0.8770069568274363</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.895616407641553</v>
+        <v>0.895743948407927</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7956</v>
@@ -8313,19 +8313,19 @@
         <v>6674593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6630164</v>
+        <v>6631067</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6717714</v>
+        <v>6715822</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9197061585184889</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9135841744569443</v>
+        <v>0.9137086566832242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9256479239652353</v>
+        <v>0.9253871890055015</v>
       </c>
     </row>
     <row r="27">
